--- a/Outputs/1. Budget/Output Files/2000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260799.652011602</v>
+        <v>2260053.935530042</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981356</v>
+        <v>9963012.959981354</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.7489988643977</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>17.71051693380591</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>54.70191565295233</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>173.3244323150252</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>76.27526719558746</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>131.1019666843687</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>65.29997400339126</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>105.6571329437492</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>272.3714309750215</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>60.54139430664144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>95.31089658768592</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.2557360069198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8688121773847</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002232</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.9560276769667</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.380899675072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>47.27820527287736</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7955476484028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>143.2925104849749</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2448.053502818637</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2448.053502818637</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2448.053502818637</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>2522.073906861631</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220517</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>764.7444956504012</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>270.0191909330954</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>119.9025515207597</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
     </row>
     <row r="11">
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.9414681711437</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>689.013084274259</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013834</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013834</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5899330013834</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W16" t="n">
-        <v>359.1696912903951</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,16 +5536,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>990.782867939064</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>821.8466850111571</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988213</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164282</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771456</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771456</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>1172.431332769304</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>275.872457296028</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,31 +6004,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6232,46 +6232,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158952</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609721</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550853</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181246</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201073</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>557.888878489131</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>407.7722390767952</v>
       </c>
       <c r="E31" t="n">
         <v>265.3924131404652</v>
@@ -6612,25 +6612,25 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W31" t="n">
-        <v>265.3924131404652</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>144.9728543621822</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>144.9728543621822</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>144.9728543621822</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>144.9728543621822</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>144.9728543621822</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V34" t="n">
-        <v>4379.003158825423</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W34" t="n">
-        <v>4089.585988788463</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>326.6213191924219</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>326.6213191924219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,16 +6928,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6946,19 +6946,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>1432.107328986838</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,25 +7350,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,49 +7396,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3941.006808105546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3772.070625177639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3772.070625177639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3772.070625177639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3772.070625177639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3603.895303497459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4860.854573014293</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4571.437402977333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4122.655272935785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100637</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>61.58968815487859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>13.86592142355585</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>225.9816040299496</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>191.2121017489051</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.328917345175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.963168004552642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518716</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>5.477934969602472</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>119.2153631905002</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.34209567542524</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>23.17774625772566</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>5.621317882561215</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453288</v>
       </c>
       <c r="C4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="D4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="E4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="F4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="G4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="H4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="I4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
-        <v>26500.76044945711</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="K4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="L4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="M4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="N4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="O4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="P4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253062</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269105.9549561351</v>
+        <v>-268243.0366182837</v>
       </c>
       <c r="C6" t="n">
-        <v>320861.9242584092</v>
+        <v>321724.8425962606</v>
       </c>
       <c r="D6" t="n">
-        <v>320861.9242584091</v>
+        <v>321724.8425962607</v>
       </c>
       <c r="E6" t="n">
-        <v>-96207.43924227753</v>
+        <v>-96487.54482507284</v>
       </c>
       <c r="F6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518234</v>
       </c>
       <c r="G6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.4916518233</v>
       </c>
       <c r="H6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="I6" t="n">
-        <v>428952.597234618</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="J6" t="n">
-        <v>252529.378042025</v>
+        <v>252249.2724592304</v>
       </c>
       <c r="K6" t="n">
-        <v>428952.597234618</v>
+        <v>428672.4916518231</v>
       </c>
       <c r="L6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="M6" t="n">
-        <v>294151.5820007811</v>
+        <v>293871.4764179859</v>
       </c>
       <c r="N6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="O6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.491651823</v>
       </c>
       <c r="P6" t="n">
-        <v>428952.5972346179</v>
+        <v>428672.4916518232</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275.9848427990828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>198.7378034238519</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1031945837913</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>170.333189805132</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>6.975201561408156</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>196.4066683634438</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>44.6532749170199</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>135.8702717544314</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>251.6318749791119</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>81.13398864317791</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951379</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056088</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330527</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/2000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260053.935530042</v>
+        <v>2264993.198379073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800615</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>27.23426475783305</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.71051693380591</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>43.31785343913998</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>136.1286387281323</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>56.47806442422762</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.50320101340354</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>11.90975838011567</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>101.7806877295493</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.1019666843687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>65.29997400339126</v>
+        <v>65.29997400339137</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384949</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>272.3714309750215</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>37.49025241182677</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>157.6718707735952</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.5809693952292</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985813</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>95.31089658768592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>195.815584166321</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>192.6186303828491</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>173.5954779282463</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>140.9560276769667</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>276.5187349146333</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>47.27820527287736</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896922</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1796758467005</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1358.887193518369</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>973.098940920125</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>562.1130361305175</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.053502818637</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.053502818637</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.053502818637</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2095.284847548523</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.819089287443</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="3">
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>856.150059809637</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>856.150059809637</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2649.166059691552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2649.166059691552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047577</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>156.7517573047577</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3182666762914</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626213</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504012</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C10" t="n">
-        <v>270.0191909330954</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D10" t="n">
-        <v>119.9025515207597</v>
+        <v>119.9025515207598</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="11">
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5114,28 +5114,28 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277024</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>563.7235867775557</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1332.091733170016</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1661.954360834048</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>434.328596068372</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909231</v>
       </c>
       <c r="U13" t="n">
-        <v>689.013084274259</v>
+        <v>1164.055751909231</v>
       </c>
       <c r="V13" t="n">
-        <v>434.3285960683721</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="W13" t="n">
-        <v>434.3285960683721</v>
+        <v>836.7696400421419</v>
       </c>
       <c r="X13" t="n">
-        <v>434.3285960683721</v>
+        <v>836.7696400421419</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.3285960683721</v>
+        <v>615.9770608986117</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262059</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5393,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>985.4001231459555</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>816.4639402180486</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>666.3473008057128</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>518.4342072233197</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>518.4342072233197</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="T16" t="n">
-        <v>1326.612261067772</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.48362228133</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="V16" t="n">
-        <v>782.7991340754431</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="W16" t="n">
-        <v>493.3819640384826</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>1167.048587976195</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,64 +5500,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771456</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771456</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W19" t="n">
-        <v>1113.513998854602</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1080.566582233417</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>791.1494121964562</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6311,19 +6311,19 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494012</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158045</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376742</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.070939158952</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6393,43 +6393,43 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557908</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557908</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347414</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609721</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550853</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181246</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201073</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,52 +6463,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.8250614170379</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>557.888878489131</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>407.7722390767952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352016</v>
+        <v>955.1031435655744</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150552</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170379</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170379</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="32">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.9728543621822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>144.9728543621822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>144.9728543621822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>144.9728543621822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>144.9728543621822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273998</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904392</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>326.6213191924219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.6213191924219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155896</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6934,49 +6934,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688073</v>
@@ -7128,19 +7128,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7359,22 +7359,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7420,19 +7420,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>29.47535963978788</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504591</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735921</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229593</v>
+        <v>409.7003683229635</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928312</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.6461250100637</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298099</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503157</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119822</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627436</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.077005648170598e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>13.86592142355585</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>214.6473909120012</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.821697689782354</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>50.96659166316005</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>191.2121017489051</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>29.89407122271615</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>59.51901294097894</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>78.54216539558169</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>5.477934969602472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>10.00426342195772</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>119.2153631905002</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>23.17774625772566</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>14.74113413690279</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109147</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049989</v>
-      </c>
       <c r="E2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327919</v>
@@ -26352,10 +26352,10 @@
         <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768944</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.211877578403801e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>1.454820107937849e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>170145.3182453287</v>
       </c>
       <c r="E4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253065</v>
       </c>
       <c r="F4" t="n">
-        <v>25806.27477253064</v>
+        <v>25806.27477253071</v>
       </c>
       <c r="G4" t="n">
-        <v>25806.27477253064</v>
+        <v>25806.27477253071</v>
       </c>
       <c r="H4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253071</v>
       </c>
       <c r="I4" t="n">
         <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="K4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="L4" t="n">
         <v>25806.27477253062</v>
       </c>
       <c r="M4" t="n">
-        <v>25806.27477253062</v>
+        <v>25806.2747725306</v>
       </c>
       <c r="N4" t="n">
         <v>25806.27477253062</v>
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871665</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268243.0366182837</v>
+        <v>-268243.0366182838</v>
       </c>
       <c r="C6" t="n">
+        <v>321724.8425962607</v>
+      </c>
+      <c r="D6" t="n">
         <v>321724.8425962606</v>
       </c>
-      <c r="D6" t="n">
-        <v>321724.8425962607</v>
-      </c>
       <c r="E6" t="n">
-        <v>-96487.54482507284</v>
+        <v>-95610.41269132185</v>
       </c>
       <c r="F6" t="n">
-        <v>428672.4916518234</v>
+        <v>429549.6237855722</v>
       </c>
       <c r="G6" t="n">
-        <v>428672.4916518233</v>
+        <v>429549.6237855726</v>
       </c>
       <c r="H6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="I6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855714</v>
       </c>
       <c r="J6" t="n">
-        <v>252249.2724592304</v>
+        <v>253126.4045929796</v>
       </c>
       <c r="K6" t="n">
-        <v>428672.4916518231</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="L6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855728</v>
       </c>
       <c r="M6" t="n">
-        <v>293871.4764179859</v>
+        <v>294748.6085517356</v>
       </c>
       <c r="N6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855724</v>
       </c>
       <c r="O6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855728</v>
       </c>
       <c r="P6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855723</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541005</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990159</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990163</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990159</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>386.5499052629619</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>198.7378034238519</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>102.1031945837913</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>89.58101666090482</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>350.3979813174838</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.975201561408156</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>167.9222218018216</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>44.6532749170199</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.6318749791119</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>81.13398864317791</v>
+        <v>81.1339886431778</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,16 +32709,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927188</v>
@@ -32727,19 +32727,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,19 +32879,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
@@ -32900,7 +32900,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,16 +32946,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927188</v>
@@ -32964,19 +32964,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,19 +33116,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
@@ -33137,7 +33137,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,16 +33183,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927188</v>
@@ -33201,19 +33201,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,19 +33353,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
@@ -33374,7 +33374,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>278.7330645958115</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004653</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109148</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586658</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734254</v>
+        <v>720.1247453734289</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081121</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980131</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209233</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36527,16 +36527,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081121</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980131</v>
@@ -36694,7 +36694,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.6591577951379</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056088</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081121</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980131</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37001,16 +37001,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081121</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081121</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109126</v>
